--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Jag2-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Jag2-Notch3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H2">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I2">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J2">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N2">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O2">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P2">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q2">
-        <v>82.963815395655</v>
+        <v>636.7387594768759</v>
       </c>
       <c r="R2">
-        <v>331.85526158262</v>
+        <v>2546.955037907504</v>
       </c>
       <c r="S2">
-        <v>0.01791473135631807</v>
+        <v>0.1565179797063293</v>
       </c>
       <c r="T2">
-        <v>0.01327364491318149</v>
+        <v>0.1457754547022395</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H3">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I3">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J3">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.157581</v>
       </c>
       <c r="O3">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P3">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q3">
-        <v>49.76590751713834</v>
+        <v>61.97548272315017</v>
       </c>
       <c r="R3">
-        <v>298.59544510283</v>
+        <v>371.852896338901</v>
       </c>
       <c r="S3">
-        <v>0.01074616517600027</v>
+        <v>0.01523431266399019</v>
       </c>
       <c r="T3">
-        <v>0.01194330893560832</v>
+        <v>0.02128307105518547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H4">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I4">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J4">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N4">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O4">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P4">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q4">
-        <v>1.15674159486</v>
+        <v>1.876446277678167</v>
       </c>
       <c r="R4">
-        <v>6.940449569160001</v>
+        <v>11.258677666069</v>
       </c>
       <c r="S4">
-        <v>0.0002497801580335842</v>
+        <v>0.0004612528702523793</v>
       </c>
       <c r="T4">
-        <v>0.0002776061548023324</v>
+        <v>0.0006443925517686193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H5">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I5">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J5">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N5">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O5">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P5">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q5">
-        <v>1689.726307843228</v>
+        <v>2582.995077576618</v>
       </c>
       <c r="R5">
-        <v>6758.905231372911</v>
+        <v>10331.98031030647</v>
       </c>
       <c r="S5">
-        <v>0.364869825795162</v>
+        <v>0.6349309903261318</v>
       </c>
       <c r="T5">
-        <v>0.2703446906800148</v>
+        <v>0.5913528528351703</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H6">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I6">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J6">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N6">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O6">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P6">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q6">
-        <v>278.22574611812</v>
+        <v>8.022089126619166</v>
       </c>
       <c r="R6">
-        <v>1669.35447670872</v>
+        <v>48.13253475971499</v>
       </c>
       <c r="S6">
-        <v>0.06007847486698779</v>
+        <v>0.001971925164653247</v>
       </c>
       <c r="T6">
-        <v>0.06677133414244453</v>
+        <v>0.002754874756773628</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H7">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I7">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J7">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N7">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O7">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P7">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q7">
-        <v>2.582121863061667</v>
+        <v>2.043852493050667</v>
       </c>
       <c r="R7">
-        <v>15.49273117837</v>
+        <v>12.263114958304</v>
       </c>
       <c r="S7">
-        <v>0.0005575686133216084</v>
+        <v>0.0005024033141831259</v>
       </c>
       <c r="T7">
-        <v>0.0006196828443109108</v>
+        <v>0.0007018817107118173</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I8">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J8">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N8">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O8">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P8">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q8">
-        <v>1.099981994596</v>
+        <v>6.779070599989333</v>
       </c>
       <c r="R8">
-        <v>6.599891967575999</v>
+        <v>40.674423599936</v>
       </c>
       <c r="S8">
-        <v>0.0002375238148823889</v>
+        <v>0.001666376388754197</v>
       </c>
       <c r="T8">
-        <v>0.000263984431119686</v>
+        <v>0.002328008349885721</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I9">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J9">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>8.157581</v>
       </c>
       <c r="O9">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P9">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q9">
         <v>0.6598250327871111</v>
@@ -1013,10 +1013,10 @@
         <v>5.938425295084</v>
       </c>
       <c r="S9">
-        <v>0.0001424788403014301</v>
+        <v>0.0001621928609722896</v>
       </c>
       <c r="T9">
-        <v>0.0002375268914962662</v>
+        <v>0.0003398868981673752</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I10">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J10">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N10">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O10">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P10">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q10">
-        <v>0.015336745552</v>
+        <v>0.01997767782177778</v>
       </c>
       <c r="R10">
-        <v>0.138030709968</v>
+        <v>0.179799100396</v>
       </c>
       <c r="S10">
-        <v>3.311729036737086E-06</v>
+        <v>4.910751427253354E-06</v>
       </c>
       <c r="T10">
-        <v>5.520993165791431E-06</v>
+        <v>1.029083561554115E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I11">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J11">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N11">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O11">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P11">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q11">
-        <v>22.40336350924467</v>
+        <v>27.499984459408</v>
       </c>
       <c r="R11">
-        <v>134.420181055468</v>
+        <v>164.999906756448</v>
       </c>
       <c r="S11">
-        <v>0.004837654064389581</v>
+        <v>0.006759824096585888</v>
       </c>
       <c r="T11">
-        <v>0.005376578162379489</v>
+        <v>0.009443800960463537</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I12">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J12">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N12">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O12">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P12">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q12">
-        <v>3.688877008650667</v>
+        <v>0.0854075674511111</v>
       </c>
       <c r="R12">
-        <v>33.199893077856</v>
+        <v>0.7686681070599999</v>
       </c>
       <c r="S12">
-        <v>0.0007965549836553914</v>
+        <v>2.099419849996649E-05</v>
       </c>
       <c r="T12">
-        <v>0.001327939143617701</v>
+        <v>4.399486490889933E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I13">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J13">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N13">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O13">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P13">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q13">
-        <v>0.03423525718622222</v>
+        <v>0.02175997634844444</v>
       </c>
       <c r="R13">
-        <v>0.308117314676</v>
+        <v>0.195839787136</v>
       </c>
       <c r="S13">
-        <v>7.392565451344337E-06</v>
+        <v>5.348861657666561E-06</v>
       </c>
       <c r="T13">
-        <v>1.232416749129652E-05</v>
+        <v>1.12089273637099E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H14">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I14">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J14">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N14">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O14">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P14">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q14">
-        <v>8.26165106367</v>
+        <v>45.91929044496266</v>
       </c>
       <c r="R14">
-        <v>49.56990638202</v>
+        <v>275.515742669776</v>
       </c>
       <c r="S14">
-        <v>0.001783973635487343</v>
+        <v>0.01128750914409305</v>
       </c>
       <c r="T14">
-        <v>0.001982711777889864</v>
+        <v>0.01576919579165747</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H15">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I15">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J15">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.157581</v>
       </c>
       <c r="O15">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P15">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q15">
-        <v>4.955757649436667</v>
+        <v>4.469447083713223</v>
       </c>
       <c r="R15">
-        <v>44.60181884493</v>
+        <v>40.225023753419</v>
       </c>
       <c r="S15">
-        <v>0.00107011793675687</v>
+        <v>0.00109864338794432</v>
       </c>
       <c r="T15">
-        <v>0.001783996743056773</v>
+        <v>0.002302286864427951</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H16">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I16">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J16">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N16">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O16">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P16">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q16">
-        <v>0.11518992204</v>
+        <v>0.1353225013345556</v>
       </c>
       <c r="R16">
-        <v>1.03670929836</v>
+        <v>1.217902512011</v>
       </c>
       <c r="S16">
-        <v>2.487345234136733E-05</v>
+        <v>3.326388444625677E-05</v>
       </c>
       <c r="T16">
-        <v>4.14666051669583E-05</v>
+        <v>6.970688128725845E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H17">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I17">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J17">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N17">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O17">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P17">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q17">
-        <v>168.265274227435</v>
+        <v>186.276238755428</v>
       </c>
       <c r="R17">
-        <v>1009.59164536461</v>
+        <v>1117.657432532568</v>
       </c>
       <c r="S17">
-        <v>0.03633424005400263</v>
+        <v>0.04578892068899137</v>
       </c>
       <c r="T17">
-        <v>0.04038194526124195</v>
+        <v>0.0639693351487776</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H18">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I18">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J18">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N18">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O18">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P18">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q18">
-        <v>27.70610320168</v>
+        <v>0.5785239787872222</v>
       </c>
       <c r="R18">
-        <v>249.35492881512</v>
+        <v>5.206715809085</v>
       </c>
       <c r="S18">
-        <v>0.005982697317154918</v>
+        <v>0.0001422080924456927</v>
       </c>
       <c r="T18">
-        <v>0.009973772200141891</v>
+        <v>0.0002980073669452304</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H19">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I19">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J19">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N19">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O19">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P19">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q19">
-        <v>0.2571312533633334</v>
+        <v>0.1473952305528889</v>
       </c>
       <c r="R19">
-        <v>2.31418128027</v>
+        <v>1.326557074976</v>
       </c>
       <c r="S19">
-        <v>5.552345086046661E-05</v>
+        <v>3.623150524626514E-05</v>
       </c>
       <c r="T19">
-        <v>9.256330736641986E-05</v>
+        <v>7.592574580820773E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H20">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I20">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J20">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N20">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O20">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P20">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q20">
-        <v>7.941563139182999</v>
+        <v>52.55611923920399</v>
       </c>
       <c r="R20">
-        <v>31.766252556732</v>
+        <v>210.224476956816</v>
       </c>
       <c r="S20">
-        <v>0.001714855681470412</v>
+        <v>0.01291892080086871</v>
       </c>
       <c r="T20">
-        <v>0.001270595965993227</v>
+        <v>0.01203223781409888</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H21">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I21">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J21">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>8.157581</v>
       </c>
       <c r="O21">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P21">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q21">
-        <v>4.763752665439667</v>
+        <v>5.1154273419465</v>
       </c>
       <c r="R21">
-        <v>28.582515992638</v>
+        <v>30.692564051679</v>
       </c>
       <c r="S21">
-        <v>0.001028657479677161</v>
+        <v>0.001257433038242839</v>
       </c>
       <c r="T21">
-        <v>0.001143251929176216</v>
+        <v>0.001756694725277519</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H22">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I22">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J22">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N22">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O22">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P22">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q22">
-        <v>0.110727024396</v>
+        <v>0.1548809976585</v>
       </c>
       <c r="R22">
-        <v>0.664362146376</v>
+        <v>0.929285985951</v>
       </c>
       <c r="S22">
-        <v>2.390975977272501E-05</v>
+        <v>3.807159606292116E-05</v>
       </c>
       <c r="T22">
-        <v>2.657335364429242E-05</v>
+        <v>5.318785967329889E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H23">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I23">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J23">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N23">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O23">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P23">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q23">
-        <v>161.7460346740315</v>
+        <v>213.199204965822</v>
       </c>
       <c r="R23">
-        <v>646.984138696126</v>
+        <v>852.796819863288</v>
       </c>
       <c r="S23">
-        <v>0.03492651278531648</v>
+        <v>0.05240690681946451</v>
       </c>
       <c r="T23">
-        <v>0.02587826295282312</v>
+        <v>0.04880998774376848</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H24">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I24">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J24">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N24">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O24">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P24">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q24">
-        <v>26.632662917032</v>
+        <v>0.6621394824974999</v>
       </c>
       <c r="R24">
-        <v>159.795977502192</v>
+        <v>3.972836894984999</v>
       </c>
       <c r="S24">
-        <v>0.005750904767176247</v>
+        <v>0.0001627617803091611</v>
       </c>
       <c r="T24">
-        <v>0.006391566774633656</v>
+        <v>0.0002273860732539967</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H25">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I25">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J25">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,28 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N25">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O25">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P25">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q25">
-        <v>0.2471690062803333</v>
+        <v>0.168698628336</v>
       </c>
       <c r="R25">
-        <v>1.483014037682</v>
+        <v>1.012191770016</v>
       </c>
       <c r="S25">
-        <v>5.337226025591111E-05</v>
+        <v>4.146813444821957E-05</v>
       </c>
       <c r="T25">
-        <v>5.931803414409197E-05</v>
+        <v>5.793298794986643E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H26">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I26">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J26">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N26">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O26">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P26">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q26">
-        <v>62.82849239985699</v>
+        <v>18.71126256919733</v>
       </c>
       <c r="R26">
-        <v>376.9709543991419</v>
+        <v>112.267575415184</v>
       </c>
       <c r="S26">
-        <v>0.01356682497662538</v>
+        <v>0.004599451457127426</v>
       </c>
       <c r="T26">
-        <v>0.01507819573935422</v>
+        <v>0.006425655973853419</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H27">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I27">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J27">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>8.157581</v>
       </c>
       <c r="O27">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P27">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q27">
-        <v>37.68771876391145</v>
+        <v>1.821217120563445</v>
       </c>
       <c r="R27">
-        <v>339.189468875203</v>
+        <v>16.390954085071</v>
       </c>
       <c r="S27">
-        <v>0.008138070240237541</v>
+        <v>0.0004476768848677583</v>
       </c>
       <c r="T27">
-        <v>0.013567000705876</v>
+        <v>0.0009381393661027516</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H28">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I28">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J28">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N28">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O28">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P28">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q28">
-        <v>0.8760003400839999</v>
+        <v>0.05514141942211113</v>
       </c>
       <c r="R28">
-        <v>7.884003060755999</v>
+        <v>0.4962727747990001</v>
       </c>
       <c r="S28">
-        <v>0.0001891584986274632</v>
+        <v>1.355441841357172E-05</v>
       </c>
       <c r="T28">
-        <v>0.0003153466864555265</v>
+        <v>2.840426639886904E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H29">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I29">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J29">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N29">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O29">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P29">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q29">
-        <v>1279.629631109355</v>
+        <v>75.90412613045201</v>
       </c>
       <c r="R29">
-        <v>7677.777786656131</v>
+        <v>455.4247567827121</v>
       </c>
       <c r="S29">
-        <v>0.2763158970881789</v>
+        <v>0.01865813930201652</v>
       </c>
       <c r="T29">
-        <v>0.3070980269421269</v>
+        <v>0.02606632233963595</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H30">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I30">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J30">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N30">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O30">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P30">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q30">
-        <v>210.7003407697946</v>
+        <v>0.2357378340294445</v>
       </c>
       <c r="R30">
-        <v>1896.303066928152</v>
+        <v>2.121640506265</v>
       </c>
       <c r="S30">
-        <v>0.04549742539653291</v>
+        <v>5.794717059936505E-05</v>
       </c>
       <c r="T30">
-        <v>0.07584889098380225</v>
+        <v>0.0001214324968098247</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H31">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I31">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J31">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2359,28 +2359,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N31">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O31">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P31">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q31">
-        <v>1.955440731301889</v>
+        <v>0.06006083355377779</v>
       </c>
       <c r="R31">
-        <v>17.598966581717</v>
+        <v>0.540547501984</v>
       </c>
       <c r="S31">
-        <v>0.0004222466772702227</v>
+        <v>1.476366906741886E-05</v>
       </c>
       <c r="T31">
-        <v>0.0007039286709832694</v>
+        <v>3.093833880735314E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H32">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I32">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J32">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N32">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O32">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P32">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q32">
-        <v>19.476667139854</v>
+        <v>25.762794510152</v>
       </c>
       <c r="R32">
-        <v>116.860002839124</v>
+        <v>154.576767060912</v>
       </c>
       <c r="S32">
-        <v>0.004205680004745608</v>
+        <v>0.006332802092385804</v>
       </c>
       <c r="T32">
-        <v>0.004674200959907729</v>
+        <v>0.008847230582923599</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H33">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I33">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J33">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>8.157581</v>
       </c>
       <c r="O33">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P33">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q33">
-        <v>11.68309353905178</v>
+        <v>2.507561542783667</v>
       </c>
       <c r="R33">
-        <v>105.147841851466</v>
+        <v>22.568053885053</v>
       </c>
       <c r="S33">
-        <v>0.002522780337002309</v>
+        <v>0.0006163885279863178</v>
       </c>
       <c r="T33">
-        <v>0.004205734480350391</v>
+        <v>0.001291686844829854</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H34">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I34">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J34">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N34">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O34">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P34">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q34">
-        <v>0.271557797848</v>
+        <v>0.07592203103966667</v>
       </c>
       <c r="R34">
-        <v>2.444020180632</v>
+        <v>0.6832982793569999</v>
       </c>
       <c r="S34">
-        <v>5.863863628932177E-05</v>
+        <v>1.866254054220395E-05</v>
       </c>
       <c r="T34">
-        <v>9.775664210851213E-05</v>
+        <v>3.910870662732993E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H35">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I35">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J35">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N35">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O35">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P35">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q35">
-        <v>396.6818148173138</v>
+        <v>104.509377533436</v>
       </c>
       <c r="R35">
-        <v>2380.090888903882</v>
+        <v>627.0562652006159</v>
       </c>
       <c r="S35">
-        <v>0.08565720022033926</v>
+        <v>0.02568965119280364</v>
       </c>
       <c r="T35">
-        <v>0.09519957938814612</v>
+        <v>0.03588968427907817</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H36">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I36">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J36">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N36">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O36">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P36">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q36">
-        <v>65.31655060748267</v>
+        <v>0.3245780638216666</v>
       </c>
       <c r="R36">
-        <v>587.8489554673441</v>
+        <v>2.921202574395</v>
       </c>
       <c r="S36">
-        <v>0.01410408202267525</v>
+        <v>7.978515843467232E-05</v>
       </c>
       <c r="T36">
-        <v>0.02351295640227637</v>
+        <v>0.0001671955834405463</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H37">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I37">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J37">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -2731,28 +2731,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N37">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O37">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P37">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q37">
-        <v>0.6061814756415557</v>
+        <v>0.08269537703466666</v>
       </c>
       <c r="R37">
-        <v>5.455633280774001</v>
+        <v>0.7442583933119999</v>
       </c>
       <c r="S37">
-        <v>0.0001308953576629224</v>
+        <v>2.032750975479019E-05</v>
       </c>
       <c r="T37">
-        <v>0.000218216033701489</v>
+        <v>4.259777031248682E-05</v>
       </c>
     </row>
   </sheetData>
